--- a/bin/Debug/net6.0/Output/05-29-2023.xlsx
+++ b/bin/Debug/net6.0/Output/05-29-2023.xlsx
@@ -12,7 +12,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>BB0018</t>
+  </si>
+  <si>
+    <t>WKYRPTIASPPRD02B</t>
+  </si>
+  <si>
+    <t>DLYIASPPRD01ABK</t>
+  </si>
+  <si>
+    <t>BB0494</t>
+  </si>
+  <si>
+    <t>07/28/2023</t>
+  </si>
+  <si>
+    <t>WKYSAVEAPPDEV01</t>
+  </si>
+  <si>
+    <t>BB0498</t>
+  </si>
+  <si>
+    <t>ICPFDLYPRD01ABK</t>
+  </si>
+  <si>
+    <t>BB0608</t>
+  </si>
+  <si>
+    <t>BB0611</t>
+  </si>
+  <si>
+    <t>DLYIASPIFSPRD01ABK</t>
+  </si>
+  <si>
+    <t>WKYRPTICPFPRD02B</t>
+  </si>
+  <si>
+    <t>BB0613</t>
+  </si>
+  <si>
+    <t>WKYRPTIPROPRD02B</t>
+  </si>
+  <si>
+    <t>BB0959</t>
+  </si>
+  <si>
+    <t>BB0960</t>
+  </si>
+  <si>
+    <t>BB1750</t>
+  </si>
+  <si>
+    <t>BB1816</t>
+  </si>
+  <si>
+    <t>BB1817</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,11 +114,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>